--- a/StudyTracker.xlsx
+++ b/StudyTracker.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8535" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OnLinuxPlatform" sheetId="1" r:id="rId1"/>
     <sheet name="WebAppDevelopmentUsingJavaTech" sheetId="2" r:id="rId2"/>
     <sheet name="CI_Jenkins" sheetId="3" r:id="rId3"/>
+    <sheet name="DBMS" sheetId="5" r:id="rId4"/>
+    <sheet name="WebServiceAutomation" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Complete OS Concepts along with Linux OS hands on.</t>
   </si>
@@ -47,6 +49,46 @@
   </si>
   <si>
     <t xml:space="preserve">Create a Jenkins job to automate CI build deployment cycle usig ant/maven into Jboss EAP or Tomcat Servers </t>
+  </si>
+  <si>
+    <t>What is Web Service/s
+http://www.tutorialspoint.com/webservices/index.htm</t>
+  </si>
+  <si>
+    <t>About SOAP API &amp; REST API to access Web Service/s
+http://blog.smartbear.com/apis/understanding-soap-and-rest-basics/</t>
+  </si>
+  <si>
+    <t>Difference between REST and RESTful api
+http://www.mashery.com/blog/what-restful-api
+http://www.restapitutorial.com/</t>
+  </si>
+  <si>
+    <t>Difference between SOAP and REST API
+http://blog.smartbear.com/apis/understanding-soap-and-rest-basics/</t>
+  </si>
+  <si>
+    <t>How to test a REST api from command line with cURL
+http://www.codingpedia.org/ama/how-to-test-a-rest-api-from-command-line-with-curl/
+https://wiki.duraspace.org/display/DURACLOUDDOC/REST+API+Examples+Using+curl
+https://www.javacodegeeks.com/2014/12/how-to-test-a-rest-api-from-command-line-with-curl.html</t>
+  </si>
+  <si>
+    <t>Calling a Web service from Oracle Forms 11g
+http://www.oracle.com/technetwork/developer-tools/forms/webservices-forms-11g-094111.html</t>
+  </si>
+  <si>
+    <t>Gerrit Code Review - REST API Developers' Notes
+https://review.cyanogenmod.org/Documentation/dev-rest-api.html</t>
+  </si>
+  <si>
+    <t>About RDBMS</t>
+  </si>
+  <si>
+    <t>Hands on SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About Schema, Table, </t>
   </si>
 </sst>
 </file>
@@ -82,10 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -369,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -452,4 +497,91 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="95.42578125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StudyTracker.xlsx
+++ b/StudyTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8535" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="OnLinuxPlatform" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Complete OS Concepts along with Linux OS hands on.</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">About Schema, Table, </t>
+  </si>
+  <si>
+    <t>Once Linux OS is completed concentrate on Android Linux Kernel functionalities along with Android Architecture.</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,6 +445,11 @@
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -503,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/StudyTracker.xlsx
+++ b/StudyTracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VijayBI\GitHubCom\VBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBI\SCM\GitHubCom\VBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8532" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OnLinuxPlatform" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Complete OS Concepts along with Linux OS hands on.</t>
   </si>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>Once Linux OS is completed concentrate on Android Linux Kernel functionalities along with Android Architecture.</t>
+  </si>
+  <si>
+    <t>Webservice automation using "Block Extensible Exchange Protocol" BEEP as trasport protocol
+BEEP is a new Internet Engineering Task Force (IETF) framework for building new protocols. Which promising alternative for HTTP.</t>
   </si>
 </sst>
 </file>
@@ -417,37 +421,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="77.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -466,17 +470,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="123.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="123.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -492,12 +496,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="99.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -515,22 +519,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -542,51 +546,56 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="95.44140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
